--- a/data/trans_dic/P12_3_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P12_3_R-Habitat-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,06</t>
+          <t>0,0; 6,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,13; 13,55</t>
+          <t>4,35; 13,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,06; 17,44</t>
+          <t>5,57; 17,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,67; 12,76</t>
+          <t>2,92; 12,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 8,13</t>
+          <t>0,88; 7,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,69; 23,32</t>
+          <t>9,37; 23,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,2; 25,66</t>
+          <t>10,44; 24,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,32; 9,35</t>
+          <t>3,34; 8,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 5,46</t>
+          <t>0,83; 4,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,82; 16,76</t>
+          <t>7,92; 16,22</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,48; 19,28</t>
+          <t>8,9; 18,8</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,6; 9,07</t>
+          <t>3,8; 9,17</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,09</t>
+          <t>3,12; 6,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,25; 11,06</t>
+          <t>6,3; 11,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,29; 12,26</t>
+          <t>6,95; 12,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,43; 13,58</t>
+          <t>8,15; 13,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,35; 8,24</t>
+          <t>4,45; 8,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,03; 16,91</t>
+          <t>10,77; 17,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,62; 16,6</t>
+          <t>10,85; 16,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,83; 16,22</t>
+          <t>12,03; 16,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,18; 6,73</t>
+          <t>4,12; 6,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,23; 13,04</t>
+          <t>9,27; 13,12</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,6; 13,42</t>
+          <t>9,45; 13,26</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,75; 14,07</t>
+          <t>10,77; 14,22</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,5; 7,83</t>
+          <t>4,52; 7,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,57; 10,22</t>
+          <t>6,58; 10,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,14; 7,16</t>
+          <t>4,24; 7,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,41; 11,93</t>
+          <t>7,51; 11,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,95; 10,55</t>
+          <t>7,13; 11,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,58; 16,14</t>
+          <t>11,57; 16,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,12; 11,12</t>
+          <t>7,61; 11,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,35; 17,52</t>
+          <t>13,32; 17,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,28; 8,73</t>
+          <t>6,17; 8,63</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,47; 12,4</t>
+          <t>9,38; 12,23</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,18; 8,59</t>
+          <t>6,33; 8,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,17; 14,12</t>
+          <t>11,0; 13,98</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,5; 6,95</t>
+          <t>3,54; 7,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,18; 8,97</t>
+          <t>5,07; 9,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,09; 8,82</t>
+          <t>5,17; 9,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,7; 13,8</t>
+          <t>8,53; 13,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,71; 9,52</t>
+          <t>5,65; 9,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,15; 14,01</t>
+          <t>9,24; 14,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,75; 13,48</t>
+          <t>8,73; 13,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,26; 13,58</t>
+          <t>6,86; 13,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,03; 7,75</t>
+          <t>5,12; 7,66</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,72; 10,8</t>
+          <t>7,76; 10,92</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,34; 10,48</t>
+          <t>7,27; 10,44</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,48; 12,79</t>
+          <t>8,81; 12,87</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,7; 6,59</t>
+          <t>3,7; 6,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,09; 10,77</t>
+          <t>7,12; 10,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,61; 10,09</t>
+          <t>6,56; 10,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,14; 14,4</t>
+          <t>10,19; 14,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,73; 12,65</t>
+          <t>8,91; 12,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,8; 16,23</t>
+          <t>11,66; 16,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,44; 16,0</t>
+          <t>11,41; 15,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,66; 18,66</t>
+          <t>14,61; 18,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,72; 9,19</t>
+          <t>6,77; 9,23</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,1; 13,13</t>
+          <t>10,08; 12,99</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,68; 12,64</t>
+          <t>9,73; 12,51</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,1; 16,01</t>
+          <t>13,04; 16,15</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,37; 5,9</t>
+          <t>4,39; 5,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,17; 9,04</t>
+          <t>7,16; 8,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,47; 8,31</t>
+          <t>6,53; 8,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,52; 12,01</t>
+          <t>9,66; 11,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,6; 9,57</t>
+          <t>7,55; 9,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,15; 14,54</t>
+          <t>12,18; 14,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,65; 12,95</t>
+          <t>10,63; 12,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,75; 15,29</t>
+          <t>12,86; 15,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,24; 7,53</t>
+          <t>6,24; 7,49</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9,97; 11,51</t>
+          <t>9,98; 11,56</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,85; 10,34</t>
+          <t>8,88; 10,31</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,61; 13,25</t>
+          <t>11,62; 13,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P12_3_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P12_3_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,75</t>
+          <t>0,0; 5,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,35; 13,13</t>
+          <t>4,3; 13,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,57; 17,33</t>
+          <t>5,87; 17,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 7,4</t>
+          <t>0,88; 7,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,37; 23,66</t>
+          <t>9,29; 23,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,44; 24,43</t>
+          <t>10,41; 25,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 4,81</t>
+          <t>1,15; 5,73</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,92; 16,22</t>
+          <t>7,95; 16,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,9; 18,8</t>
+          <t>9,58; 19,03</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,12; 6,7</t>
+          <t>3,06; 6,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,3; 11,18</t>
+          <t>6,32; 10,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,95; 12,18</t>
+          <t>7,04; 12,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,45; 8,58</t>
+          <t>4,36; 8,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,77; 17,06</t>
+          <t>10,77; 16,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,85; 16,63</t>
+          <t>10,67; 16,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,12; 6,55</t>
+          <t>4,14; 6,59</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,27; 13,12</t>
+          <t>9,34; 13,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,45; 13,26</t>
+          <t>9,54; 13,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,52; 7,68</t>
+          <t>4,52; 7,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,58; 10,12</t>
+          <t>6,46; 9,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,24; 7,23</t>
+          <t>4,29; 7,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,13; 11,01</t>
+          <t>7,03; 10,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,57; 16,09</t>
+          <t>11,41; 15,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,61; 11,35</t>
+          <t>7,47; 11,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,17; 8,63</t>
+          <t>6,31; 8,78</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,38; 12,23</t>
+          <t>9,51; 12,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,33; 8,69</t>
+          <t>6,28; 8,66</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,54; 7,01</t>
+          <t>3,48; 7,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,07; 9,09</t>
+          <t>5,01; 9,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,17; 9,19</t>
+          <t>5,05; 8,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,65; 9,51</t>
+          <t>5,69; 9,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,24; 14,06</t>
+          <t>9,14; 13,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,73; 13,54</t>
+          <t>8,81; 13,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,12; 7,66</t>
+          <t>5,12; 7,74</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,76; 10,92</t>
+          <t>7,68; 10,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,27; 10,44</t>
+          <t>7,49; 10,45</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,7; 6,45</t>
+          <t>3,71; 6,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,12; 10,76</t>
+          <t>6,98; 10,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,56; 10,25</t>
+          <t>6,51; 9,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,91; 12,97</t>
+          <t>8,97; 12,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,66; 16,13</t>
+          <t>11,48; 16,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,41; 15,66</t>
+          <t>11,54; 15,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,77; 9,23</t>
+          <t>6,81; 9,17</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,08; 12,99</t>
+          <t>10,13; 13,14</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,73; 12,51</t>
+          <t>9,47; 12,43</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,39; 5,91</t>
+          <t>4,4; 5,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,16; 8,99</t>
+          <t>7,13; 9,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,53; 8,42</t>
+          <t>6,51; 8,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,55; 9,54</t>
+          <t>7,62; 9,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,18; 14,56</t>
+          <t>12,04; 14,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,63; 12,84</t>
+          <t>10,68; 12,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,24; 7,49</t>
+          <t>6,21; 7,43</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9,98; 11,56</t>
+          <t>10,01; 11,5</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,88; 10,31</t>
+          <t>8,94; 10,32</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P12_3_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P12_3_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces</t>
+          <t>Población que se sintió desanimada y triste siempre, casi siempre o muchas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,97</t>
+          <t>0,0; 6,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,3; 13,72</t>
+          <t>4,13; 13,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,87; 17,06</t>
+          <t>6,06; 17,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,92; 12,88</t>
+          <t>2,67; 12,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 7,31</t>
+          <t>0,78; 8,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,29; 23,65</t>
+          <t>9,69; 23,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,41; 25,66</t>
+          <t>10,2; 25,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,34; 8,83</t>
+          <t>3,32; 9,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 5,73</t>
+          <t>1,15; 5,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,95; 16,55</t>
+          <t>7,82; 16,76</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,58; 19,03</t>
+          <t>9,48; 19,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,8; 9,17</t>
+          <t>3,6; 9,07</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,06; 6,33</t>
+          <t>2,95; 6,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,32; 10,86</t>
+          <t>6,25; 11,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,04; 12,07</t>
+          <t>7,29; 12,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,15; 13,54</t>
+          <t>8,43; 13,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,36; 8,19</t>
+          <t>4,35; 8,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,77; 16,94</t>
+          <t>11,03; 16,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,67; 16,42</t>
+          <t>10,62; 16,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,03; 16,34</t>
+          <t>11,83; 16,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,14; 6,59</t>
+          <t>4,18; 6,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,34; 13,05</t>
+          <t>9,23; 13,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,54; 13,33</t>
+          <t>9,6; 13,42</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,77; 14,22</t>
+          <t>10,75; 14,07</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,52; 7,51</t>
+          <t>4,5; 7,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,46; 9,95</t>
+          <t>6,57; 10,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,29; 7,35</t>
+          <t>4,14; 7,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,51; 11,97</t>
+          <t>7,41; 11,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,03; 10,71</t>
+          <t>6,95; 10,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,41; 15,82</t>
+          <t>11,58; 16,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,47; 11,27</t>
+          <t>7,12; 11,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,32; 17,32</t>
+          <t>13,35; 17,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,31; 8,78</t>
+          <t>6,28; 8,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,51; 12,4</t>
+          <t>9,47; 12,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,28; 8,66</t>
+          <t>6,18; 8,59</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,0; 13,98</t>
+          <t>11,17; 14,12</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,48; 7,09</t>
+          <t>3,5; 6,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,01; 9,12</t>
+          <t>5,18; 8,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,05; 8,96</t>
+          <t>5,09; 8,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,53; 13,85</t>
+          <t>8,7; 13,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,69; 9,77</t>
+          <t>5,71; 9,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,14; 13,87</t>
+          <t>9,15; 14,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,81; 13,15</t>
+          <t>8,75; 13,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 13,47</t>
+          <t>7,26; 13,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,12; 7,74</t>
+          <t>5,03; 7,75</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,68; 10,84</t>
+          <t>7,72; 10,8</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,49; 10,45</t>
+          <t>7,34; 10,48</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,81; 12,87</t>
+          <t>8,48; 12,79</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,71; 6,37</t>
+          <t>3,7; 6,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,98; 10,79</t>
+          <t>7,09; 10,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,51; 9,95</t>
+          <t>6,61; 10,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,19; 14,5</t>
+          <t>10,14; 14,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,97; 12,8</t>
+          <t>8,73; 12,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,48; 16,12</t>
+          <t>11,8; 16,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,54; 15,96</t>
+          <t>11,44; 16,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,61; 18,86</t>
+          <t>14,66; 18,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,81; 9,17</t>
+          <t>6,72; 9,19</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,13; 13,14</t>
+          <t>10,1; 13,13</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,47; 12,43</t>
+          <t>9,68; 12,64</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,04; 16,15</t>
+          <t>13,1; 16,01</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,4; 5,91</t>
+          <t>4,37; 5,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,13; 9,08</t>
+          <t>7,17; 9,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,51; 8,38</t>
+          <t>6,47; 8,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,66; 11,84</t>
+          <t>9,52; 12,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,62; 9,39</t>
+          <t>7,6; 9,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,04; 14,62</t>
+          <t>12,15; 14,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,68; 12,94</t>
+          <t>10,65; 12,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,86; 15,29</t>
+          <t>12,75; 15,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,21; 7,43</t>
+          <t>6,24; 7,53</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,01; 11,5</t>
+          <t>9,97; 11,51</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,94; 10,32</t>
+          <t>8,85; 10,34</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,62; 13,39</t>
+          <t>11,61; 13,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P12_3_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P12_3_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>13,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>11,75%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>10,99%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,06</t>
+          <t>2,74; 5,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,13; 13,55</t>
+          <t>6,59; 10,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,06; 17,44</t>
+          <t>7,49; 12,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,67; 12,76</t>
+          <t>7,47; 11,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 8,13</t>
+          <t>4,11; 7,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,69; 23,32</t>
+          <t>11,27; 16,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,2; 25,66</t>
+          <t>11,46; 16,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,32; 9,35</t>
+          <t>10,54; 14,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 5,46</t>
+          <t>3,83; 6,08</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,82; 16,76</t>
+          <t>9,51; 12,83</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,48; 19,28</t>
+          <t>10,08; 13,5</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,6; 9,07</t>
+          <t>9,47; 12,43</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,97%</t>
+          <t>15,03%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>11,13%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,09</t>
+          <t>4,5; 7,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,25; 11,06</t>
+          <t>6,57; 10,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,29; 12,26</t>
+          <t>4,14; 7,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,43; 13,58</t>
+          <t>4,1; 11,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,35; 8,24</t>
+          <t>6,95; 10,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,03; 16,91</t>
+          <t>11,58; 16,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,62; 16,6</t>
+          <t>7,12; 11,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,83; 16,22</t>
+          <t>13,19; 17,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,18; 6,73</t>
+          <t>6,28; 8,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,23; 13,04</t>
+          <t>9,47; 12,4</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,6; 13,42</t>
+          <t>6,18; 8,59</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,75; 14,07</t>
+          <t>7,55; 13,26</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>11,42%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>9,9%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,5; 7,83</t>
+          <t>3,5; 6,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,57; 10,22</t>
+          <t>5,18; 8,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,14; 7,16</t>
+          <t>5,09; 8,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,41; 11,93</t>
+          <t>8,51; 13,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,95; 10,55</t>
+          <t>5,71; 9,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,58; 16,14</t>
+          <t>9,15; 14,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,12; 11,12</t>
+          <t>8,75; 13,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,35; 17,52</t>
+          <t>4,83; 12,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,28; 8,73</t>
+          <t>5,03; 7,75</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,47; 12,4</t>
+          <t>7,72; 10,8</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,18; 8,59</t>
+          <t>7,34; 10,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,17; 14,12</t>
+          <t>6,22; 11,99</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>13,49%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,5; 6,95</t>
+          <t>3,7; 6,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,18; 8,97</t>
+          <t>7,09; 10,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,09; 8,82</t>
+          <t>6,61; 10,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,7; 13,8</t>
+          <t>9,53; 13,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,71; 9,52</t>
+          <t>8,73; 12,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,15; 14,01</t>
+          <t>11,8; 16,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,75; 13,48</t>
+          <t>11,44; 16,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,26; 13,58</t>
+          <t>11,93; 17,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,03; 7,75</t>
+          <t>6,72; 9,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,72; 10,8</t>
+          <t>10,1; 13,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,34; 10,48</t>
+          <t>9,68; 12,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,48; 12,79</t>
+          <t>11,79; 14,94</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>9,82%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>13,3%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>11,49%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,7; 6,59</t>
+          <t>4,37; 5,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,09; 10,77</t>
+          <t>7,17; 9,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,61; 10,09</t>
+          <t>6,47; 8,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,14; 14,4</t>
+          <t>7,47; 11,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,73; 12,65</t>
+          <t>7,6; 9,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,8; 16,23</t>
+          <t>12,15; 14,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,44; 16,0</t>
+          <t>10,65; 12,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,66; 18,66</t>
+          <t>10,91; 14,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,72; 9,19</t>
+          <t>6,24; 7,53</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,1; 13,13</t>
+          <t>9,97; 11,51</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,68; 12,64</t>
+          <t>8,85; 10,34</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,1; 16,01</t>
+          <t>9,95; 12,48</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>5,07%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>8,08%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>7,38%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>10,72%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>8,48%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>13,3%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>11,74%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>14,12%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>6,8%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>10,74%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>9,61%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>12,52%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>4,37; 5,9</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>7,17; 9,04</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>6,47; 8,31</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>9,52; 12,01</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>7,6; 9,57</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>12,15; 14,54</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>10,65; 12,95</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>12,75; 15,29</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>6,24; 7,53</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>9,97; 11,51</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>8,85; 10,34</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>11,61; 13,25</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P12_3_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P12_3_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,74; 5,51</t>
+          <t>2,68; 5,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,59; 10,89</t>
+          <t>6,27; 10,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,49; 12,28</t>
+          <t>7,5; 12,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,47; 11,92</t>
+          <t>7,47; 12,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,11; 7,56</t>
+          <t>4,05; 7,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,27; 16,66</t>
+          <t>11,44; 16,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,46; 16,87</t>
+          <t>11,38; 16,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,54; 14,31</t>
+          <t>10,43; 14,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 6,08</t>
+          <t>3,75; 6,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,51; 12,83</t>
+          <t>9,4; 12,91</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,08; 13,5</t>
+          <t>10,13; 13,61</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,47; 12,43</t>
+          <t>9,63; 12,53</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,5; 7,83</t>
+          <t>4,51; 7,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,57; 10,22</t>
+          <t>6,48; 10,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,14; 7,16</t>
+          <t>4,29; 7,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,1; 11,0</t>
+          <t>4,18; 10,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,95; 10,55</t>
+          <t>7,12; 11,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,58; 16,14</t>
+          <t>11,56; 15,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,12; 11,12</t>
+          <t>7,56; 11,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,19; 17,25</t>
+          <t>13,16; 17,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,28; 8,73</t>
+          <t>6,27; 8,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,47; 12,4</t>
+          <t>9,46; 12,46</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,18; 8,59</t>
+          <t>6,27; 8,76</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,55; 13,26</t>
+          <t>7,77; 13,22</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,5; 6,95</t>
+          <t>3,63; 7,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,18; 8,97</t>
+          <t>5,28; 9,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,09; 8,82</t>
+          <t>5,21; 8,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,51; 13,99</t>
+          <t>8,56; 14,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,71; 9,52</t>
+          <t>5,71; 9,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,15; 14,01</t>
+          <t>9,1; 14,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,75; 13,48</t>
+          <t>8,83; 13,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,83; 12,59</t>
+          <t>4,92; 12,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,03; 7,75</t>
+          <t>5,13; 7,71</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,72; 10,8</t>
+          <t>7,79; 10,89</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,34; 10,48</t>
+          <t>7,5; 10,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,22; 11,99</t>
+          <t>6,5; 12,23</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 6,59</t>
+          <t>3,7; 6,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,09; 10,77</t>
+          <t>7,11; 10,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,61; 10,09</t>
+          <t>6,43; 10,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,53; 13,57</t>
+          <t>9,51; 13,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,73; 12,65</t>
+          <t>8,84; 12,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,8; 16,23</t>
+          <t>11,71; 16,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,44; 16,0</t>
+          <t>11,15; 15,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,93; 17,34</t>
+          <t>11,98; 17,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,72; 9,19</t>
+          <t>6,82; 9,13</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,1; 13,13</t>
+          <t>10,17; 13,02</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,68; 12,64</t>
+          <t>9,73; 12,61</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,79; 14,94</t>
+          <t>11,86; 14,97</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,37; 5,9</t>
+          <t>4,38; 5,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,17; 9,04</t>
+          <t>7,13; 9,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,47; 8,31</t>
+          <t>6,49; 8,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,47; 11,11</t>
+          <t>7,57; 11,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,6; 9,57</t>
+          <t>7,54; 9,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,15; 14,54</t>
+          <t>12,09; 14,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,65; 12,95</t>
+          <t>10,68; 12,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,91; 14,46</t>
+          <t>10,49; 14,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,24; 7,53</t>
+          <t>6,22; 7,46</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,97; 11,51</t>
+          <t>10,0; 11,51</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,85; 10,34</t>
+          <t>8,91; 10,34</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,95; 12,48</t>
+          <t>10,13; 12,51</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se sintió desanimada y triste siempre, casi siempre o muchas veces</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>27556</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>58614</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>64325</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>61188</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>39253</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>97280</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>93508</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>82587</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>66810</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>155893</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>157833</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>143775</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>18609; 38680</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>44050; 73666</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>50417; 81262</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>47362; 76665</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>27865; 52855</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>79503; 115659</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>76363; 110821</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>70285; 95898</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>51848; 83821</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>131439; 180428</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>136174; 182882</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>125967; 163891</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>57508</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>82827</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>56974</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>95407</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>85022</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>140012</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>96123</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>143880</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>142530</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>222839</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>153096</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>239286</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>43331; 73379</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>65842; 102645</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>43820; 72991</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>49861; 129964</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>68935; 106551</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>119082; 164368</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>78875; 116918</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>125935; 162846</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>120952; 167377</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>193510; 254884</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>129464; 180771</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>167021; 284201</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>34410</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>51608</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>52039</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>76633</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>51772</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>88546</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>85104</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>85229</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>86181</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>140155</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>137144</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>161862</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>24621; 48374</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>39940; 69827</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>39608; 68251</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>60195; 98672</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>39065; 66166</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>70523; 109761</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>69119; 102940</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>45887; 117265</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>69935; 105054</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>119345; 166795</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>115662; 161105</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>106312; 199988</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>46571</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>83459</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>76747</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>106168</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>110479</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>146438</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>140609</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>166572</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>157050</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>229897</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>217356</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>272740</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>34888; 60496</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>67310; 102079</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>60129; 96094</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>88162; 126515</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>91818; 130596</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>123158; 168481</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>116106; 163789</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>131162; 189077</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>135040; 180888</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>203306; 260287</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>192401; 249224</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>239688; 302681</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1216</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>166046</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>276508</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>250085</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>339395</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>286526</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>472276</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>415345</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>478268</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>452571</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>748783</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>665430</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>817663</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>143463; 192159</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>244051; 311769</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>219954; 282827</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>261632; 391794</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>254823; 319623</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>429410; 515675</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>377743; 455323</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>383620; 526372</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>413707; 496793</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>697227; 802929</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>617461; 715912</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>721084; 889857</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>